--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\DSA Supreme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CB46D6-DE72-4643-8C10-1ADA8741C83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955BAA63-9897-445B-AA9C-B049D3687A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView minimized="1" xWindow="3375" yWindow="2925" windowWidth="15375" windowHeight="7875" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,12 @@
   </si>
   <si>
     <t>&lt;Yes&gt;</t>
+  </si>
+  <si>
+    <t>&lt;-Yes&gt;</t>
+  </si>
+  <si>
+    <t>&lt;-Yes-&gt;</t>
   </si>
 </sst>
 </file>
@@ -1868,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1916,26 +1922,26 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="13" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="14" customFormat="1" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955BAA63-9897-445B-AA9C-B049D3687A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EA9014-CF58-41CC-9A9A-A4E34DBE3C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3375" yWindow="2925" windowWidth="15375" windowHeight="7875" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1875,7 +1875,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1955,37 +1955,37 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
+      <c r="C12" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EA9014-CF58-41CC-9A9A-A4E34DBE3C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBDF0CF-627A-40C2-BF9D-59654AA60BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1498,7 +1498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1508,6 +1508,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF468"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF12B2B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1557,6 +1569,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1564,6 +1592,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF12B2B"/>
+      <color rgb="FFCC0000"/>
+      <color rgb="FFEAF468"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1875,7 +1910,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1933,25 +1968,25 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="17" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>465</v>
       </c>
     </row>
@@ -1988,70 +2023,70 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="22" customFormat="1" ht="21">
+      <c r="A17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
+      <c r="C18" s="17" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBDF0CF-627A-40C2-BF9D-59654AA60BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E91B55-4DDB-4F91-9D63-89DD454939A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1594,9 +1594,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEAF468"/>
       <color rgb="FFF12B2B"/>
       <color rgb="FFCC0000"/>
-      <color rgb="FFEAF468"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2089,26 +2089,26 @@
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
+      <c r="C20" s="17" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E91B55-4DDB-4F91-9D63-89DD454939A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54D663E-0B11-4366-996C-4AD8282D5248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2111,26 +2111,26 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="21">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
+      <c r="C22" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2144,15 +2144,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
+      <c r="C24" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54D663E-0B11-4366-996C-4AD8282D5248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C6284A-BD0F-4C93-913E-7D94C8DDA57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2133,15 +2133,15 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
+      <c r="C23" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="14" customFormat="1" ht="21">
@@ -2166,15 +2166,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
+      <c r="C26" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C6284A-BD0F-4C93-913E-7D94C8DDA57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E41F18-6A17-4DDB-9D75-2BEE5EEDABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1910,7 +1910,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2155,48 +2155,48 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A26" s="11" t="s">
+      <c r="C25" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="17" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="21">
-      <c r="A28" s="5" t="s">
+      <c r="C27" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
+      <c r="C28" s="17" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E41F18-6A17-4DDB-9D75-2BEE5EEDABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F5CC9F-0107-4267-8535-2C07894049DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="2850" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2232,47 +2232,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="21">
-      <c r="A33" s="5" t="s">
+      <c r="C32" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A33" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21">
-      <c r="A34" s="5" t="s">
+      <c r="C33" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A34" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21">
-      <c r="A35" s="5" t="s">
+      <c r="C34" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F5CC9F-0107-4267-8535-2C07894049DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355BF2C4-3F1E-4F1D-9A73-E192159DDF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1910,7 +1910,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2199,37 +2199,37 @@
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="21">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="21">
-      <c r="A31" s="5" t="s">
+      <c r="C30" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A31" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
+      <c r="C31" s="17" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="14" customFormat="1" ht="21">
@@ -2240,7 +2240,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="18" customFormat="1" ht="21">
@@ -2273,7 +2273,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355BF2C4-3F1E-4F1D-9A73-E192159DDF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F588B4D-1CB6-4389-86E5-E77D1C6B0A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1498,7 +1498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1523,6 +1523,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1537,7 +1543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1585,6 +1591,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1594,8 +1608,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF12B2B"/>
       <color rgb="FFEAF468"/>
-      <color rgb="FFF12B2B"/>
       <color rgb="FFCC0000"/>
     </mruColors>
   </colors>
@@ -1909,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2276,70 +2290,70 @@
         <v>465</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="21">
-      <c r="A37" s="5" t="s">
+      <c r="C36" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A37" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="21">
-      <c r="A38" s="5" t="s">
+      <c r="C37" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A38" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="21">
-      <c r="A39" s="5" t="s">
+      <c r="C38" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A39" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A40" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="21">
-      <c r="A41" s="5" t="s">
+      <c r="C40" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="26" customFormat="1" ht="21">
+      <c r="A41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>4</v>
+      <c r="C41" s="25" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F588B4D-1CB6-4389-86E5-E77D1C6B0A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB92608C-ABD0-44CD-AA08-B0F94BF4CD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1498,7 +1498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1523,12 +1523,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1543,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1591,14 +1585,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1923,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2345,14 +2331,14 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="26" customFormat="1" ht="21">
-      <c r="A41" s="23" t="s">
+    <row r="41" spans="1:3" s="22" customFormat="1" ht="21">
+      <c r="A41" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="21" t="s">
         <v>465</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB92608C-ABD0-44CD-AA08-B0F94BF4CD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9622E22A-04EB-415D-9462-04573C6B0931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1537,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1585,6 +1585,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1594,8 +1597,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEAF468"/>
       <color rgb="FFF12B2B"/>
-      <color rgb="FFEAF468"/>
       <color rgb="FFCC0000"/>
     </mruColors>
   </colors>
@@ -1909,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2355,26 +2358,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21">
-      <c r="A45" s="8" t="s">
+      <c r="C44" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A45" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>4</v>
+      <c r="C45" s="17" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9622E22A-04EB-415D-9462-04573C6B0931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC6B132-F0D8-4F6C-B30D-849EACA155DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1537,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1586,6 +1586,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1913,7 +1916,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2380,26 +2383,26 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:3" s="22" customFormat="1" ht="21">
+      <c r="A46" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="21">
-      <c r="A47" s="8" t="s">
+      <c r="C46" s="21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A47" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>4</v>
+      <c r="C47" s="17" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC6B132-F0D8-4F6C-B30D-849EACA155DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A1315E-DE91-4FE5-8E4A-C5CAE49A3717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1537,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1589,6 +1589,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1916,7 +1919,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2405,15 +2408,15 @@
         <v>465</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A48" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>4</v>
+      <c r="C48" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A1315E-DE91-4FE5-8E4A-C5CAE49A3717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8908649-B369-4041-8843-9BAE7644C6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1603,9 +1603,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFEAF468"/>
       <color rgb="FFF12B2B"/>
       <color rgb="FFCC0000"/>
+      <color rgb="FFEAF468"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1919,7 +1919,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2430,15 +2430,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:3" s="22" customFormat="1" ht="21">
+      <c r="A50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
+      <c r="C50" s="21" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8908649-B369-4041-8843-9BAE7644C6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D6D02-34FC-47EA-B4B0-B3310CEA8950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>&lt;-Yes-&gt;</t>
+  </si>
+  <si>
+    <t>&lt;No&gt;</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1523,6 +1526,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1537,7 +1546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1594,6 +1603,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1918,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2419,15 +2436,15 @@
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:3" s="29" customFormat="1" ht="21">
+      <c r="A49" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>4</v>
+      <c r="C49" s="28" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="22" customFormat="1" ht="21">
@@ -2441,15 +2458,15 @@
         <v>465</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A51" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
+      <c r="C51" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2467,7 +2484,7 @@
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="26" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2479,26 +2496,26 @@
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A56" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="21">
-      <c r="A57" s="5" t="s">
+      <c r="C56" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A57" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
+      <c r="C57" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\450 Dsa Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D6D02-34FC-47EA-B4B0-B3310CEA8950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B935F3-C9B2-4CFF-BB23-C2B783AAE9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1935,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2518,15 +2518,15 @@
         <v>465</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A58" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
+      <c r="C58" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
